--- a/Excel/BattleLevelConfig@cs.xlsx
+++ b/Excel/BattleLevelConfig@cs.xlsx
@@ -1,33 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project\UnityProject\ETGameLesson\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\F-UnityProject\UtopiaOnline\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFBC696-DB43-4336-BE1F-7BA82FF68537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0290EB-729F-4959-95D3-1FC02B1F0FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-150" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36" yWindow="1140" windowWidth="20880" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BattleLevelConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -142,10 +130,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1002,1002,1002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>战斗胜利获取的经验值</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -163,6 +147,10 @@
   </si>
   <si>
     <t>c</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002,1002</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -256,7 +244,7 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -566,25 +554,25 @@
   <dimension ref="C2:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="13.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="E2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -592,16 +580,16 @@
         <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -615,10 +603,10 @@
         <v>16</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
@@ -632,15 +620,15 @@
         <v>15</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>4</v>
@@ -652,7 +640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -669,7 +657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -686,7 +674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -703,7 +691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -720,7 +708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -737,7 +725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
         <v>7</v>
       </c>
@@ -754,7 +742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
         <v>8</v>
       </c>
@@ -771,7 +759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <v>9</v>
       </c>
@@ -788,7 +776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>10</v>
       </c>
@@ -805,7 +793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>11</v>
       </c>
@@ -822,7 +810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>12</v>
       </c>

--- a/Excel/BattleLevelConfig@cs.xlsx
+++ b/Excel/BattleLevelConfig@cs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\F-UnityProject\UtopiaOnline\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0290EB-729F-4959-95D3-1FC02B1F0FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D419EE2-E160-4850-AB78-4D195FF336C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36" yWindow="1140" windowWidth="20880" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -151,6 +151,50 @@
   </si>
   <si>
     <t>1002,1002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003,1003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1004,1004</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1005,1005</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1006,1006</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1007,1007</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1008,1008</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1009,1009</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010,1010</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1011,1011</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1012,1012</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1013,1013</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -553,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -567,12 +611,12 @@
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.3">
       <c r="E2" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -589,7 +633,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -606,7 +650,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
@@ -640,12 +684,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="1">
-        <v>1003</v>
+      <c r="D7" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>5</v>
@@ -657,12 +701,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="1">
-        <v>1004</v>
+      <c r="D8" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>6</v>
@@ -674,12 +718,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D9" s="1">
-        <v>1005</v>
+      <c r="D9" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>7</v>
@@ -691,12 +735,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <v>5</v>
       </c>
-      <c r="D10" s="1">
-        <v>1006</v>
+      <c r="D10" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>8</v>
@@ -708,12 +752,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>6</v>
       </c>
-      <c r="D11" s="1">
-        <v>1007</v>
+      <c r="D11" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>9</v>
@@ -725,12 +769,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
         <v>7</v>
       </c>
-      <c r="D12" s="1">
-        <v>1008</v>
+      <c r="D12" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>10</v>
@@ -742,12 +786,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
         <v>8</v>
       </c>
-      <c r="D13" s="1">
-        <v>1009</v>
+      <c r="D13" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>11</v>
@@ -759,12 +803,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <v>9</v>
       </c>
-      <c r="D14" s="1">
-        <v>1010</v>
+      <c r="D14" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>12</v>
@@ -776,12 +820,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>10</v>
       </c>
-      <c r="D15" s="1">
-        <v>1011</v>
+      <c r="D15" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>17</v>
@@ -793,12 +837,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>11</v>
       </c>
-      <c r="D16" s="1">
-        <v>1012</v>
+      <c r="D16" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>18</v>
@@ -810,12 +854,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="3:7" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>12</v>
       </c>
-      <c r="D17" s="1">
-        <v>1013</v>
+      <c r="D17" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>19</v>
